--- a/biology/Botanique/Dioscorea_caucasica/Dioscorea_caucasica.xlsx
+++ b/biology/Botanique/Dioscorea_caucasica/Dioscorea_caucasica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dioscorea caucasica est une plante de la famille des Dioscoreaceae appartenant au genre Dioscorea. C'est une plante d'altitude de la ceinture forestière.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dioscorea caucasica est une liane vivace grimpante qui peut atteindre 4 mètres. Ses tubercules sont horizontaux, allongés et gros. Ses feuilles pétiolées sont pointues, ovoïdes ou en forme de cœur. Ses fleurs dioïques unisexuées sont minuscules (3 à 4 mm) et poussent en petits épis jaunes en mai-juin. Elles donnent de petites capsules en juillet.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante-reliquat (relictum) et son aire de distribution est fort réduite. On la trouve surtout dans les districts occidentaux de Transcaucasie entre 400 et 1 000 d'altitude et parfois jusqu'à 1 600 mètres, selon le Livre rouge de Russie[2], essentiellement dans le raïon d'Adler (parc national de Sotchi) et en Abkhazie sur des terres à minéraux de carbonates, le tout faisant à peine 15 000 hectares. C'est donc une espèce menacée inscrite au Livre rouge de Russie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante-reliquat (relictum) et son aire de distribution est fort réduite. On la trouve surtout dans les districts occidentaux de Transcaucasie entre 400 et 1 000 d'altitude et parfois jusqu'à 1 600 mètres, selon le Livre rouge de Russie, essentiellement dans le raïon d'Adler (parc national de Sotchi) et en Abkhazie sur des terres à minéraux de carbonates, le tout faisant à peine 15 000 hectares. C'est donc une espèce menacée inscrite au Livre rouge de Russie.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Vertus médicinales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rhizome séché en infusion possède une action vasodilatatrice, réduit la pression artérielle et diminue la tachycardie.
 Jusque dans les années 1980, ses tubercules étaient récoltées (à peine 30 à 40 tonnes par an), ce qui la menaçait de disparition. Des mesures ont été prises pour la cultiver, surtout dans la région de Gagra, mais sans grand succès.
